--- a/biology/Botanique/Aloo_paratha/Aloo_paratha.xlsx
+++ b/biology/Botanique/Aloo_paratha/Aloo_paratha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’aloo paratha (ourdou : آلو پراٹھا ; hindi : आलू पराठा ; marathi : बटाटा पराठा), soit « paratha à la pomme de terre », est un mets indien, très populaire au petit déjeuner dans les régions du centre, du nord et de l'ouest de l'Inde.
@@ -513,7 +525,9 @@
           <t>Aloo paratha prêt à l'emploi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve dans le commerce en Inde une forme d'aloo paratha « prêt à cuire », qui aide les clients à gagner beaucoup de temps dans la préparation du paratha, tout en conservant le goût original d'un produit fait maison.
 Un autre type de produit commercialisé est un mélange prêt à l'emploi destiné à farcir les parathas, ce qui peut être pratique pour préparer l'aloo paratha original farci.
